--- a/PUI Final/PassengerDataAnnual.xlsx
+++ b/PUI Final/PassengerDataAnnual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritu1\OneDrive\Documents\GitHub\rituroy19.github.io\PUI Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="11_F25DC773A252ABDACC1048A7D15B552C5BDE58F5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59B07E1E-0BE1-4406-91CF-15AE9F5603C9}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="11_F25DC773A252ABDACC1048A7D15B552C5BDE58F5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46127575-A17F-4042-A5B4-5709A2817C67}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="384">
   <si>
     <t>ATLANTA GA, US (ATL)</t>
   </si>
@@ -1168,6 +1168,15 @@
   </si>
   <si>
     <t>32 893 190</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>passengers</t>
   </si>
 </sst>
 </file>
@@ -1504,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E360"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1519,26 +1528,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
-        <v>42736</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -1547,10 +1555,10 @@
         <v>42736</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1559,10 +1567,10 @@
         <v>42736</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1571,10 +1579,10 @@
         <v>42736</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1583,10 +1591,10 @@
         <v>42736</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1595,10 +1603,10 @@
         <v>42736</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -1607,10 +1615,10 @@
         <v>42736</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1619,10 +1627,10 @@
         <v>42736</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -1631,10 +1639,10 @@
         <v>42736</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1643,10 +1651,10 @@
         <v>42736</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -1655,10 +1663,10 @@
         <v>42736</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -1667,10 +1675,10 @@
         <v>42736</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1679,10 +1687,10 @@
         <v>42736</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -1691,10 +1699,10 @@
         <v>42736</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1703,10 +1711,10 @@
         <v>42736</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -1715,10 +1723,10 @@
         <v>42736</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1727,10 +1735,10 @@
         <v>42736</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -1739,10 +1747,10 @@
         <v>42736</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1751,34 +1759,34 @@
         <v>42736</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>104171935</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>42370</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4">
-        <v>94393454</v>
+        <v>104171935</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -1787,10 +1795,10 @@
         <v>42370</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4">
-        <v>83654250</v>
+        <v>94393454</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -1799,10 +1807,10 @@
         <v>42370</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4">
-        <v>80921527</v>
+        <v>83654250</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -1811,10 +1819,10 @@
         <v>42370</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4">
-        <v>79699762</v>
+        <v>80921527</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -1823,10 +1831,10 @@
         <v>42370</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="4">
-        <v>77960588</v>
+        <v>79699762</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -1835,10 +1843,10 @@
         <v>42370</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4">
-        <v>75715474</v>
+        <v>77960588</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -1847,10 +1855,10 @@
         <v>42370</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
-        <v>70305857</v>
+        <v>75715474</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -1859,10 +1867,10 @@
         <v>42370</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4">
-        <v>66002414</v>
+        <v>70305857</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -1871,10 +1879,10 @@
         <v>42370</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4">
-        <v>65933145</v>
+        <v>66002414</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -1883,10 +1891,10 @@
         <v>42370</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
-        <v>65670697</v>
+        <v>65933145</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -1895,10 +1903,10 @@
         <v>42370</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4">
-        <v>63625534</v>
+        <v>65670697</v>
       </c>
       <c r="D32" s="5"/>
     </row>
@@ -1907,10 +1915,10 @@
         <v>42370</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4">
-        <v>60786937</v>
+        <v>63625534</v>
       </c>
       <c r="D33" s="5"/>
     </row>
@@ -1919,10 +1927,10 @@
         <v>42370</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="4">
-        <v>60422847</v>
+        <v>60786937</v>
       </c>
       <c r="D34" s="5"/>
     </row>
@@ -1931,10 +1939,10 @@
         <v>42370</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C35" s="4">
-        <v>59732147</v>
+        <v>60422847</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -1943,10 +1951,10 @@
         <v>42370</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C36" s="4">
-        <v>59105513</v>
+        <v>59732147</v>
       </c>
       <c r="D36" s="5"/>
     </row>
@@ -1955,10 +1963,10 @@
         <v>42370</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C37" s="4">
-        <v>58698000</v>
+        <v>59105513</v>
       </c>
       <c r="D37" s="5"/>
     </row>
@@ -1967,10 +1975,10 @@
         <v>42370</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38" s="4">
-        <v>58266515</v>
+        <v>58698000</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -1979,10 +1987,10 @@
         <v>42370</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4">
-        <v>58195484</v>
+        <v>58266515</v>
       </c>
       <c r="D39" s="5"/>
     </row>
@@ -1991,22 +1999,22 @@
         <v>42370</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C40" s="4">
-        <v>57849814</v>
+        <v>58195484</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>42005</v>
+        <v>42370</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C41" s="4">
-        <v>101491106</v>
+        <v>57849814</v>
       </c>
       <c r="D41" s="5"/>
     </row>
@@ -2015,10 +2023,10 @@
         <v>42005</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42" s="4">
-        <v>89938628</v>
+        <v>101491106</v>
       </c>
       <c r="D42" s="5"/>
     </row>
@@ -2027,10 +2035,10 @@
         <v>42005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="4">
-        <v>78014841</v>
+        <v>89938628</v>
       </c>
       <c r="D43" s="5"/>
     </row>
@@ -2039,10 +2047,10 @@
         <v>42005</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4">
-        <v>76949504</v>
+        <v>78014841</v>
       </c>
       <c r="D44" s="5"/>
     </row>
@@ -2051,10 +2059,10 @@
         <v>42005</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C45" s="4">
-        <v>75573106</v>
+        <v>76949504</v>
       </c>
       <c r="D45" s="5"/>
     </row>
@@ -2063,10 +2071,10 @@
         <v>42005</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C46" s="4">
-        <v>74989795</v>
+        <v>75573106</v>
       </c>
       <c r="D46" s="5"/>
     </row>
@@ -2075,10 +2083,10 @@
         <v>42005</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47" s="4">
-        <v>74937004</v>
+        <v>74989795</v>
       </c>
       <c r="D47" s="5"/>
     </row>
@@ -2087,10 +2095,10 @@
         <v>42005</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C48" s="4">
-        <v>68283407</v>
+        <v>74937004</v>
       </c>
       <c r="D48" s="5"/>
     </row>
@@ -2099,10 +2107,10 @@
         <v>42005</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C49" s="4">
-        <v>65766986</v>
+        <v>68283407</v>
       </c>
       <c r="D49" s="5"/>
     </row>
@@ -2111,10 +2119,10 @@
         <v>42005</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C50" s="4">
-        <v>65512163</v>
+        <v>65766986</v>
       </c>
       <c r="D50" s="5"/>
     </row>
@@ -2123,10 +2131,10 @@
         <v>42005</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C51" s="4">
-        <v>61346229</v>
+        <v>65512163</v>
       </c>
       <c r="D51" s="5"/>
     </row>
@@ -2135,10 +2143,10 @@
         <v>42005</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C52" s="4">
-        <v>61032022</v>
+        <v>61346229</v>
       </c>
       <c r="D52" s="5"/>
     </row>
@@ -2147,10 +2155,10 @@
         <v>42005</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C53" s="4">
-        <v>60098073</v>
+        <v>61032022</v>
       </c>
       <c r="D53" s="5"/>
     </row>
@@ -2159,10 +2167,10 @@
         <v>42005</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C54" s="4">
-        <v>58284864</v>
+        <v>60098073</v>
       </c>
       <c r="D54" s="5"/>
     </row>
@@ -2171,10 +2179,10 @@
         <v>42005</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C55" s="4">
-        <v>56827154</v>
+        <v>58284864</v>
       </c>
       <c r="D55" s="5"/>
     </row>
@@ -2183,10 +2191,10 @@
         <v>42005</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C56" s="4">
-        <v>55449000</v>
+        <v>56827154</v>
       </c>
       <c r="D56" s="5"/>
     </row>
@@ -2195,10 +2203,10 @@
         <v>42005</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C57" s="4">
-        <v>55201915</v>
+        <v>55449000</v>
       </c>
       <c r="D57" s="5"/>
     </row>
@@ -2207,10 +2215,10 @@
         <v>42005</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C58" s="4">
-        <v>54089062</v>
+        <v>55201915</v>
       </c>
       <c r="D58" s="5"/>
     </row>
@@ -2219,10 +2227,10 @@
         <v>42005</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C59" s="4">
-        <v>54014502</v>
+        <v>54089062</v>
       </c>
       <c r="D59" s="5"/>
     </row>
@@ -2231,22 +2239,22 @@
         <v>42005</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C60" s="4">
-        <v>52902110</v>
+        <v>54014502</v>
       </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
-        <v>41640</v>
+        <v>42005</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C61" s="4">
-        <v>96178899</v>
+        <v>52902110</v>
       </c>
       <c r="D61" s="5"/>
     </row>
@@ -2255,10 +2263,10 @@
         <v>41640</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" s="4">
-        <v>86128270</v>
+        <v>96178899</v>
       </c>
       <c r="D62" s="5"/>
     </row>
@@ -2267,10 +2275,10 @@
         <v>41640</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C63" s="4">
-        <v>73408489</v>
+        <v>86128270</v>
       </c>
       <c r="D63" s="5"/>
     </row>
@@ -2279,10 +2287,10 @@
         <v>41640</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C64" s="4">
-        <v>72826565</v>
+        <v>73408489</v>
       </c>
       <c r="D64" s="5"/>
     </row>
@@ -2291,10 +2299,10 @@
         <v>41640</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" s="4">
-        <v>70663265</v>
+        <v>72826565</v>
       </c>
       <c r="D65" s="5"/>
     </row>
@@ -2303,10 +2311,10 @@
         <v>41640</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C66" s="4">
-        <v>70475636</v>
+        <v>70663265</v>
       </c>
       <c r="D66" s="5"/>
     </row>
@@ -2315,10 +2323,10 @@
         <v>41640</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4">
-        <v>69999010</v>
+        <v>70475636</v>
       </c>
       <c r="D67" s="5"/>
     </row>
@@ -2327,10 +2335,10 @@
         <v>41640</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C68" s="4">
-        <v>63813756</v>
+        <v>69999010</v>
       </c>
       <c r="D68" s="5"/>
     </row>
@@ -2339,10 +2347,10 @@
         <v>41640</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C69" s="4">
-        <v>63554402</v>
+        <v>63813756</v>
       </c>
       <c r="D69" s="5"/>
     </row>
@@ -2351,10 +2359,10 @@
         <v>41640</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C70" s="4">
-        <v>63121786</v>
+        <v>63554402</v>
       </c>
       <c r="D70" s="5"/>
     </row>
@@ -2363,10 +2371,10 @@
         <v>41640</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C71" s="4">
-        <v>59566132</v>
+        <v>63121786</v>
       </c>
       <c r="D71" s="5"/>
     </row>
@@ -2375,10 +2383,10 @@
         <v>41640</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C72" s="4">
-        <v>57221169</v>
+        <v>59566132</v>
       </c>
       <c r="D72" s="5"/>
     </row>
@@ -2387,10 +2395,10 @@
         <v>41640</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C73" s="4">
-        <v>56715541</v>
+        <v>57221169</v>
       </c>
       <c r="D73" s="5"/>
     </row>
@@ -2399,10 +2407,10 @@
         <v>41640</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C74" s="4">
-        <v>54978023</v>
+        <v>56715541</v>
       </c>
       <c r="D74" s="5"/>
     </row>
@@ -2411,10 +2419,10 @@
         <v>41640</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" s="4">
-        <v>54780346</v>
+        <v>54978023</v>
       </c>
       <c r="D75" s="5"/>
     </row>
@@ -2423,10 +2431,10 @@
         <v>41640</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C76" s="4">
-        <v>54093000</v>
+        <v>54780346</v>
       </c>
       <c r="D76" s="5"/>
     </row>
@@ -2435,10 +2443,10 @@
         <v>41640</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C77" s="4">
-        <v>53472514</v>
+        <v>54093000</v>
       </c>
       <c r="D77" s="5"/>
     </row>
@@ -2447,10 +2455,10 @@
         <v>41640</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C78" s="4">
-        <v>53254533</v>
+        <v>53472514</v>
       </c>
       <c r="D78" s="5"/>
     </row>
@@ -2459,10 +2467,10 @@
         <v>41640</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C79" s="4">
-        <v>51687894</v>
+        <v>53254533</v>
       </c>
       <c r="D79" s="5"/>
     </row>
@@ -2471,35 +2479,34 @@
         <v>41640</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C80" s="4">
-        <v>48930409</v>
+        <v>51687894</v>
       </c>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
-        <v>41275</v>
+        <v>41640</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C81" s="4">
-        <v>94431224</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
+        <v>48930409</v>
+      </c>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>41275</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82" s="4">
-        <v>83712355</v>
+        <v>94431224</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="3"/>
@@ -2509,10 +2516,10 @@
         <v>41275</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4">
-        <v>72368061</v>
+        <v>83712355</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="3"/>
@@ -2522,10 +2529,10 @@
         <v>41275</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C84" s="4">
-        <v>68906509</v>
+        <v>72368061</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="3"/>
@@ -2535,10 +2542,10 @@
         <v>41275</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C85" s="4">
-        <v>66777161</v>
+        <v>68906509</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="3"/>
@@ -2548,10 +2555,10 @@
         <v>41275</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C86" s="4">
-        <v>66667619</v>
+        <v>66777161</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="3"/>
@@ -2561,10 +2568,10 @@
         <v>41275</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C87" s="4">
-        <v>66431533</v>
+        <v>66667619</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="3"/>
@@ -2574,10 +2581,10 @@
         <v>41275</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4">
-        <v>62052917</v>
+        <v>66431533</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="3"/>
@@ -2587,10 +2594,10 @@
         <v>41275</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C89" s="4">
-        <v>60470507</v>
+        <v>62052917</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="3"/>
@@ -2600,10 +2607,10 @@
         <v>41275</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C90" s="4">
-        <v>60137347</v>
+        <v>60470507</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="3"/>
@@ -2613,10 +2620,10 @@
         <v>41275</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C91" s="4">
-        <v>59588081</v>
+        <v>60137347</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="3"/>
@@ -2626,10 +2633,10 @@
         <v>41275</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C92" s="4">
-        <v>58036948</v>
+        <v>59588081</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="3"/>
@@ -2639,10 +2646,10 @@
         <v>41275</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C93" s="4">
-        <v>53726087</v>
+        <v>58036948</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="3"/>
@@ -2652,10 +2659,10 @@
         <v>41275</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C94" s="4">
-        <v>52569200</v>
+        <v>53726087</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="3"/>
@@ -2665,10 +2672,10 @@
         <v>41275</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C95" s="4">
-        <v>52556359</v>
+        <v>52569200</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="3"/>
@@ -2678,10 +2685,10 @@
         <v>41275</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C96" s="4">
-        <v>52450262</v>
+        <v>52556359</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="3"/>
@@ -2691,10 +2698,10 @@
         <v>41275</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C97" s="4">
-        <v>51363451</v>
+        <v>52450262</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="3"/>
@@ -2704,10 +2711,10 @@
         <v>41275</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C98" s="4">
-        <v>51304654</v>
+        <v>51363451</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="3"/>
@@ -2717,10 +2724,10 @@
         <v>41275</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C99" s="4">
-        <v>50423765</v>
+        <v>51304654</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="3"/>
@@ -2730,23 +2737,23 @@
         <v>41275</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C100" s="4">
-        <v>47498127</v>
+        <v>50423765</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
-        <v>40909</v>
+        <v>41275</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C101" s="4">
-        <v>95513828</v>
+        <v>47498127</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="3"/>
@@ -2756,10 +2763,10 @@
         <v>40909</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C102" s="4">
-        <v>81929359</v>
+        <v>95513828</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="3"/>
@@ -2769,10 +2776,10 @@
         <v>40909</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4">
-        <v>70038804</v>
+        <v>81929359</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="3"/>
@@ -2782,10 +2789,10 @@
         <v>40909</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C104" s="4">
-        <v>66795178</v>
+        <v>70038804</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="3"/>
@@ -2795,10 +2802,10 @@
         <v>40909</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C105" s="4">
-        <v>66629600</v>
+        <v>66795178</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="3"/>
@@ -2808,10 +2815,10 @@
         <v>40909</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C106" s="4">
-        <v>63688121</v>
+        <v>66629600</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="3"/>
@@ -2821,10 +2828,10 @@
         <v>40909</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C107" s="4">
-        <v>61611934</v>
+        <v>63688121</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="3"/>
@@ -2834,10 +2841,10 @@
         <v>40909</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C108" s="4">
-        <v>58620160</v>
+        <v>61611934</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="3"/>
@@ -2847,10 +2854,10 @@
         <v>40909</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C109" s="4">
-        <v>57772864</v>
+        <v>58620160</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="3"/>
@@ -2860,10 +2867,10 @@
         <v>40909</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C110" s="4">
-        <v>57684550</v>
+        <v>57772864</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="3"/>
@@ -2873,10 +2880,10 @@
         <v>40909</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C111" s="4">
-        <v>57520001</v>
+        <v>57684550</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="3"/>
@@ -2886,10 +2893,10 @@
         <v>40909</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C112" s="4">
-        <v>56061595</v>
+        <v>57520001</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="3"/>
@@ -2899,10 +2906,10 @@
         <v>40909</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C113" s="4">
-        <v>53156278</v>
+        <v>56061595</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="3"/>
@@ -2912,10 +2919,10 @@
         <v>40909</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C114" s="4">
-        <v>53002328</v>
+        <v>53156278</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="3"/>
@@ -2925,10 +2932,10 @@
         <v>40909</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C115" s="4">
-        <v>51181804</v>
+        <v>53002328</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="3"/>
@@ -2938,10 +2945,10 @@
         <v>40909</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C116" s="4">
-        <v>51035590</v>
+        <v>51181804</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="3"/>
@@ -2951,10 +2958,10 @@
         <v>40909</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C117" s="4">
-        <v>49291765</v>
+        <v>51035590</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="3"/>
@@ -2964,10 +2971,10 @@
         <v>40909</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C118" s="4">
-        <v>48309410</v>
+        <v>49291765</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="3"/>
@@ -2977,10 +2984,10 @@
         <v>40909</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C119" s="4">
-        <v>45176978</v>
+        <v>48309410</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="3"/>
@@ -2990,35 +2997,36 @@
         <v>40909</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C120" s="4">
-        <v>45123758</v>
+        <v>45176978</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
-        <v>40544</v>
+        <v>40909</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C121" s="4">
+        <v>45123758</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>40544</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D122" s="3"/>
     </row>
@@ -3027,10 +3035,10 @@
         <v>40544</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D123" s="3"/>
     </row>
@@ -3039,10 +3047,10 @@
         <v>40544</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D124" s="3"/>
     </row>
@@ -3051,10 +3059,10 @@
         <v>40544</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D125" s="3"/>
     </row>
@@ -3063,10 +3071,10 @@
         <v>40544</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D126" s="3"/>
     </row>
@@ -3075,10 +3083,10 @@
         <v>40544</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D127" s="3"/>
     </row>
@@ -3087,10 +3095,10 @@
         <v>40544</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D128" s="3"/>
     </row>
@@ -3099,10 +3107,10 @@
         <v>40544</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D129" s="3"/>
     </row>
@@ -3111,10 +3119,10 @@
         <v>40544</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D130" s="3"/>
     </row>
@@ -3123,10 +3131,10 @@
         <v>40544</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D131" s="3"/>
     </row>
@@ -3135,10 +3143,10 @@
         <v>40544</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D132" s="3"/>
     </row>
@@ -3147,10 +3155,10 @@
         <v>40544</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D133" s="3"/>
     </row>
@@ -3159,10 +3167,10 @@
         <v>40544</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D134" s="3"/>
     </row>
@@ -3171,10 +3179,10 @@
         <v>40544</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D135" s="3"/>
     </row>
@@ -3183,10 +3191,10 @@
         <v>40544</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D136" s="3"/>
     </row>
@@ -3195,10 +3203,10 @@
         <v>40544</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D137" s="3"/>
     </row>
@@ -3207,10 +3215,10 @@
         <v>40544</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D138" s="3"/>
     </row>
@@ -3219,10 +3227,10 @@
         <v>40544</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D139" s="3"/>
     </row>
@@ -3231,22 +3239,22 @@
         <v>40544</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
-        <v>40179</v>
+        <v>40544</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D141" s="3"/>
     </row>
@@ -3255,10 +3263,10 @@
         <v>40179</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D142" s="3"/>
     </row>
@@ -3267,10 +3275,10 @@
         <v>40179</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D143" s="3"/>
     </row>
@@ -3279,10 +3287,10 @@
         <v>40179</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D144" s="3"/>
     </row>
@@ -3291,10 +3299,10 @@
         <v>40179</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D145" s="3"/>
     </row>
@@ -3303,10 +3311,10 @@
         <v>40179</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D146" s="3"/>
     </row>
@@ -3315,10 +3323,10 @@
         <v>40179</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D147" s="3"/>
     </row>
@@ -3327,10 +3335,10 @@
         <v>40179</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D148" s="3"/>
     </row>
@@ -3339,10 +3347,10 @@
         <v>40179</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D149" s="3"/>
     </row>
@@ -3351,10 +3359,10 @@
         <v>40179</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D150" s="3"/>
     </row>
@@ -3363,10 +3371,10 @@
         <v>40179</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D151" s="3"/>
     </row>
@@ -3375,10 +3383,10 @@
         <v>40179</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D152" s="3"/>
     </row>
@@ -3387,10 +3395,10 @@
         <v>40179</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D153" s="3"/>
     </row>
@@ -3399,10 +3407,10 @@
         <v>40179</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D154" s="3"/>
     </row>
@@ -3411,10 +3419,10 @@
         <v>40179</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D155" s="3"/>
     </row>
@@ -3423,10 +3431,10 @@
         <v>40179</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D156" s="3"/>
     </row>
@@ -3435,10 +3443,10 @@
         <v>40179</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D157" s="3"/>
     </row>
@@ -3447,10 +3455,10 @@
         <v>40179</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D158" s="3"/>
     </row>
@@ -3459,10 +3467,10 @@
         <v>40179</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D159" s="3"/>
     </row>
@@ -3471,22 +3479,22 @@
         <v>40179</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D160" s="3"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
-        <v>39814</v>
+        <v>40179</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D161" s="3"/>
     </row>
@@ -3495,10 +3503,10 @@
         <v>39814</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D162" s="3"/>
     </row>
@@ -3507,10 +3515,10 @@
         <v>39814</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D163" s="3"/>
     </row>
@@ -3519,10 +3527,10 @@
         <v>39814</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D164" s="3"/>
     </row>
@@ -3531,10 +3539,10 @@
         <v>39814</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D165" s="3"/>
     </row>
@@ -3543,10 +3551,10 @@
         <v>39814</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D166" s="3"/>
     </row>
@@ -3555,10 +3563,10 @@
         <v>39814</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D167" s="3"/>
     </row>
@@ -3567,10 +3575,10 @@
         <v>39814</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D168" s="3"/>
     </row>
@@ -3579,10 +3587,10 @@
         <v>39814</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D169" s="3"/>
     </row>
@@ -3591,10 +3599,10 @@
         <v>39814</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D170" s="3"/>
     </row>
@@ -3603,10 +3611,10 @@
         <v>39814</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D171" s="3"/>
     </row>
@@ -3615,10 +3623,10 @@
         <v>39814</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D172" s="3"/>
     </row>
@@ -3627,10 +3635,10 @@
         <v>39814</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D173" s="3"/>
     </row>
@@ -3639,10 +3647,10 @@
         <v>39814</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D174" s="3"/>
     </row>
@@ -3651,10 +3659,10 @@
         <v>39814</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D175" s="3"/>
     </row>
@@ -3663,10 +3671,10 @@
         <v>39814</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D176" s="3"/>
     </row>
@@ -3675,10 +3683,10 @@
         <v>39814</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D177" s="3"/>
     </row>
@@ -3687,10 +3695,10 @@
         <v>39814</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D178" s="3"/>
     </row>
@@ -3699,10 +3707,10 @@
         <v>39814</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D179" s="3"/>
     </row>
@@ -3711,22 +3719,22 @@
         <v>39814</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D180" s="3"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
-        <v>39448</v>
+        <v>39814</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D181" s="3"/>
     </row>
@@ -3735,10 +3743,10 @@
         <v>39448</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D182" s="3"/>
     </row>
@@ -3747,10 +3755,10 @@
         <v>39448</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D183" s="3"/>
     </row>
@@ -3759,10 +3767,10 @@
         <v>39448</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D184" s="3"/>
     </row>
@@ -3771,10 +3779,10 @@
         <v>39448</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D185" s="3"/>
     </row>
@@ -3783,10 +3791,10 @@
         <v>39448</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D186" s="3"/>
     </row>
@@ -3795,10 +3803,10 @@
         <v>39448</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D187" s="3"/>
     </row>
@@ -3807,10 +3815,10 @@
         <v>39448</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D188" s="3"/>
     </row>
@@ -3819,10 +3827,10 @@
         <v>39448</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D189" s="3"/>
     </row>
@@ -3831,10 +3839,10 @@
         <v>39448</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D190" s="3"/>
     </row>
@@ -3843,10 +3851,10 @@
         <v>39448</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D191" s="3"/>
     </row>
@@ -3855,10 +3863,10 @@
         <v>39448</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D192" s="3"/>
     </row>
@@ -3867,10 +3875,10 @@
         <v>39448</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D193" s="3"/>
     </row>
@@ -3879,10 +3887,10 @@
         <v>39448</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D194" s="3"/>
     </row>
@@ -3891,10 +3899,10 @@
         <v>39448</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D195" s="3"/>
     </row>
@@ -3903,10 +3911,10 @@
         <v>39448</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D196" s="3"/>
     </row>
@@ -3915,10 +3923,10 @@
         <v>39448</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D197" s="3"/>
     </row>
@@ -3927,10 +3935,10 @@
         <v>39448</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D198" s="3"/>
     </row>
@@ -3939,10 +3947,10 @@
         <v>39448</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D199" s="3"/>
     </row>
@@ -3951,22 +3959,22 @@
         <v>39448</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D200" s="3"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
-        <v>39083</v>
+        <v>39448</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D201" s="3"/>
     </row>
@@ -3975,10 +3983,10 @@
         <v>39083</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D202" s="3"/>
     </row>
@@ -3987,10 +3995,10 @@
         <v>39083</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D203" s="3"/>
     </row>
@@ -3999,10 +4007,10 @@
         <v>39083</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D204" s="3"/>
     </row>
@@ -4011,10 +4019,10 @@
         <v>39083</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D205" s="3"/>
     </row>
@@ -4023,10 +4031,10 @@
         <v>39083</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D206" s="3"/>
     </row>
@@ -4035,10 +4043,10 @@
         <v>39083</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D207" s="3"/>
     </row>
@@ -4047,10 +4055,10 @@
         <v>39083</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D208" s="3"/>
     </row>
@@ -4059,10 +4067,10 @@
         <v>39083</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D209" s="3"/>
     </row>
@@ -4071,10 +4079,10 @@
         <v>39083</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D210" s="3"/>
     </row>
@@ -4083,10 +4091,10 @@
         <v>39083</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D211" s="3"/>
     </row>
@@ -4095,10 +4103,10 @@
         <v>39083</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D212" s="3"/>
     </row>
@@ -4107,10 +4115,10 @@
         <v>39083</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D213" s="3"/>
     </row>
@@ -4119,10 +4127,10 @@
         <v>39083</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D214" s="3"/>
     </row>
@@ -4131,10 +4139,10 @@
         <v>39083</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D215" s="3"/>
     </row>
@@ -4143,10 +4151,10 @@
         <v>39083</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D216" s="3"/>
     </row>
@@ -4155,10 +4163,10 @@
         <v>39083</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D217" s="3"/>
     </row>
@@ -4167,10 +4175,10 @@
         <v>39083</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D218" s="3"/>
     </row>
@@ -4179,10 +4187,10 @@
         <v>39083</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D219" s="3"/>
     </row>
@@ -4191,22 +4199,22 @@
         <v>39083</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D220" s="3"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
-        <v>38718</v>
+        <v>39083</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D221" s="3"/>
     </row>
@@ -4215,10 +4223,10 @@
         <v>38718</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D222" s="3"/>
     </row>
@@ -4227,10 +4235,10 @@
         <v>38718</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D223" s="3"/>
     </row>
@@ -4239,10 +4247,10 @@
         <v>38718</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D224" s="3"/>
     </row>
@@ -4251,10 +4259,10 @@
         <v>38718</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D225" s="3"/>
     </row>
@@ -4263,10 +4271,10 @@
         <v>38718</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D226" s="3"/>
     </row>
@@ -4275,10 +4283,10 @@
         <v>38718</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D227" s="3"/>
     </row>
@@ -4287,10 +4295,10 @@
         <v>38718</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D228" s="3"/>
     </row>
@@ -4299,10 +4307,10 @@
         <v>38718</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D229" s="3"/>
     </row>
@@ -4311,10 +4319,10 @@
         <v>38718</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D230" s="3"/>
     </row>
@@ -4323,10 +4331,10 @@
         <v>38718</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D231" s="3"/>
     </row>
@@ -4335,10 +4343,10 @@
         <v>38718</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D232" s="3"/>
     </row>
@@ -4347,10 +4355,10 @@
         <v>38718</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D233" s="3"/>
     </row>
@@ -4359,10 +4367,10 @@
         <v>38718</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D234" s="3"/>
     </row>
@@ -4371,10 +4379,10 @@
         <v>38718</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D235" s="3"/>
     </row>
@@ -4383,10 +4391,10 @@
         <v>38718</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D236" s="3"/>
     </row>
@@ -4395,10 +4403,10 @@
         <v>38718</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D237" s="3"/>
     </row>
@@ -4407,10 +4415,10 @@
         <v>38718</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D238" s="3"/>
     </row>
@@ -4419,10 +4427,10 @@
         <v>38718</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D239" s="3"/>
     </row>
@@ -4431,22 +4439,22 @@
         <v>38718</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D240" s="3"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
-        <v>38353</v>
+        <v>38718</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D241" s="3"/>
     </row>
@@ -4455,10 +4463,10 @@
         <v>38353</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D242" s="3"/>
     </row>
@@ -4467,10 +4475,10 @@
         <v>38353</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D243" s="3"/>
     </row>
@@ -4479,10 +4487,10 @@
         <v>38353</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D244" s="3"/>
     </row>
@@ -4491,10 +4499,10 @@
         <v>38353</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D245" s="3"/>
     </row>
@@ -4503,10 +4511,10 @@
         <v>38353</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D246" s="3"/>
     </row>
@@ -4515,10 +4523,10 @@
         <v>38353</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D247" s="3"/>
     </row>
@@ -4527,10 +4535,10 @@
         <v>38353</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D248" s="3"/>
     </row>
@@ -4539,10 +4547,10 @@
         <v>38353</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D249" s="3"/>
     </row>
@@ -4551,10 +4559,10 @@
         <v>38353</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D250" s="3"/>
     </row>
@@ -4563,10 +4571,10 @@
         <v>38353</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D251" s="3"/>
     </row>
@@ -4575,10 +4583,10 @@
         <v>38353</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D252" s="3"/>
     </row>
@@ -4587,10 +4595,10 @@
         <v>38353</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D253" s="3"/>
     </row>
@@ -4599,10 +4607,10 @@
         <v>38353</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D254" s="3"/>
     </row>
@@ -4611,10 +4619,10 @@
         <v>38353</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D255" s="3"/>
     </row>
@@ -4623,10 +4631,10 @@
         <v>38353</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D256" s="3"/>
     </row>
@@ -4635,10 +4643,10 @@
         <v>38353</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D257" s="3"/>
     </row>
@@ -4647,10 +4655,10 @@
         <v>38353</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D258" s="3"/>
     </row>
@@ -4659,10 +4667,10 @@
         <v>38353</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D259" s="3"/>
     </row>
@@ -4671,22 +4679,22 @@
         <v>38353</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D260" s="3"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
-        <v>37987</v>
+        <v>38353</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D261" s="3"/>
     </row>
@@ -4695,10 +4703,10 @@
         <v>37987</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D262" s="3"/>
     </row>
@@ -4707,10 +4715,10 @@
         <v>37987</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D263" s="3"/>
     </row>
@@ -4719,10 +4727,10 @@
         <v>37987</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D264" s="3"/>
     </row>
@@ -4731,10 +4739,10 @@
         <v>37987</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D265" s="3"/>
     </row>
@@ -4743,10 +4751,10 @@
         <v>37987</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D266" s="3"/>
     </row>
@@ -4755,10 +4763,10 @@
         <v>37987</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D267" s="3"/>
     </row>
@@ -4767,10 +4775,10 @@
         <v>37987</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D268" s="3"/>
     </row>
@@ -4779,10 +4787,10 @@
         <v>37987</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D269" s="3"/>
     </row>
@@ -4791,10 +4799,10 @@
         <v>37987</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D270" s="3"/>
     </row>
@@ -4803,10 +4811,10 @@
         <v>37987</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D271" s="3"/>
     </row>
@@ -4815,10 +4823,10 @@
         <v>37987</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D272" s="3"/>
     </row>
@@ -4827,10 +4835,10 @@
         <v>37987</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D273" s="3"/>
     </row>
@@ -4839,10 +4847,10 @@
         <v>37987</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D274" s="3"/>
     </row>
@@ -4851,10 +4859,10 @@
         <v>37987</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D275" s="3"/>
     </row>
@@ -4863,10 +4871,10 @@
         <v>37987</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D276" s="3"/>
     </row>
@@ -4875,10 +4883,10 @@
         <v>37987</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D277" s="3"/>
     </row>
@@ -4887,10 +4895,10 @@
         <v>37987</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D278" s="3"/>
     </row>
@@ -4899,10 +4907,10 @@
         <v>37987</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D279" s="3"/>
     </row>
@@ -4911,22 +4919,22 @@
         <v>37987</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D280" s="3"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
-        <v>37622</v>
+        <v>37987</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D281" s="3"/>
     </row>
@@ -4935,10 +4943,10 @@
         <v>37622</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D282" s="3"/>
     </row>
@@ -4947,10 +4955,10 @@
         <v>37622</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D283" s="3"/>
     </row>
@@ -4959,10 +4967,10 @@
         <v>37622</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D284" s="3"/>
     </row>
@@ -4971,10 +4979,10 @@
         <v>37622</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D285" s="3"/>
     </row>
@@ -4983,10 +4991,10 @@
         <v>37622</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D286" s="3"/>
     </row>
@@ -4995,10 +5003,10 @@
         <v>37622</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D287" s="3"/>
     </row>
@@ -5007,10 +5015,10 @@
         <v>37622</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D288" s="3"/>
     </row>
@@ -5019,10 +5027,10 @@
         <v>37622</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D289" s="3"/>
     </row>
@@ -5031,10 +5039,10 @@
         <v>37622</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D290" s="3"/>
     </row>
@@ -5043,10 +5051,10 @@
         <v>37622</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D291" s="3"/>
     </row>
@@ -5055,10 +5063,10 @@
         <v>37622</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D292" s="3"/>
     </row>
@@ -5067,10 +5075,10 @@
         <v>37622</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D293" s="3"/>
     </row>
@@ -5079,10 +5087,10 @@
         <v>37622</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D294" s="3"/>
     </row>
@@ -5091,10 +5099,10 @@
         <v>37622</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D295" s="3"/>
     </row>
@@ -5103,10 +5111,10 @@
         <v>37622</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D296" s="3"/>
     </row>
@@ -5115,10 +5123,10 @@
         <v>37622</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D297" s="3"/>
     </row>
@@ -5127,10 +5135,10 @@
         <v>37622</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D298" s="3"/>
     </row>
@@ -5139,10 +5147,10 @@
         <v>37622</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>299</v>
+        <v>167</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D299" s="3"/>
     </row>
@@ -5151,22 +5159,22 @@
         <v>37622</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D300" s="3"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
-        <v>37257</v>
+        <v>37622</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D301" s="3"/>
     </row>
@@ -5175,10 +5183,10 @@
         <v>37257</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D302" s="3"/>
     </row>
@@ -5187,10 +5195,10 @@
         <v>37257</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D303" s="3"/>
     </row>
@@ -5199,10 +5207,10 @@
         <v>37257</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D304" s="3"/>
     </row>
@@ -5211,10 +5219,10 @@
         <v>37257</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>309</v>
+        <v>139</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D305" s="3"/>
     </row>
@@ -5223,10 +5231,10 @@
         <v>37257</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D306" s="3"/>
     </row>
@@ -5235,10 +5243,10 @@
         <v>37257</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D307" s="3"/>
     </row>
@@ -5247,10 +5255,10 @@
         <v>37257</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D308" s="3"/>
     </row>
@@ -5259,10 +5267,10 @@
         <v>37257</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D309" s="3"/>
     </row>
@@ -5271,10 +5279,10 @@
         <v>37257</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>316</v>
+        <v>159</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D310" s="3"/>
     </row>
@@ -5283,10 +5291,10 @@
         <v>37257</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D311" s="3"/>
     </row>
@@ -5295,10 +5303,10 @@
         <v>37257</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D312" s="3"/>
     </row>
@@ -5307,10 +5315,10 @@
         <v>37257</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D313" s="3"/>
     </row>
@@ -5319,10 +5327,10 @@
         <v>37257</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>323</v>
+        <v>153</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D314" s="3"/>
     </row>
@@ -5331,10 +5339,10 @@
         <v>37257</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D315" s="3"/>
     </row>
@@ -5343,10 +5351,10 @@
         <v>37257</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D316" s="3"/>
     </row>
@@ -5355,10 +5363,10 @@
         <v>37257</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D317" s="3"/>
     </row>
@@ -5367,10 +5375,10 @@
         <v>37257</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D318" s="3"/>
     </row>
@@ -5379,10 +5387,10 @@
         <v>37257</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D319" s="3"/>
     </row>
@@ -5391,22 +5399,22 @@
         <v>37257</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D320" s="3"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
-        <v>36892</v>
+        <v>37257</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D321" s="3"/>
     </row>
@@ -5415,10 +5423,10 @@
         <v>36892</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D322" s="3"/>
     </row>
@@ -5427,10 +5435,10 @@
         <v>36892</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D323" s="3"/>
     </row>
@@ -5439,10 +5447,10 @@
         <v>36892</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D324" s="3"/>
     </row>
@@ -5451,10 +5459,10 @@
         <v>36892</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D325" s="3"/>
     </row>
@@ -5463,10 +5471,10 @@
         <v>36892</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>285</v>
+        <v>139</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D326" s="3"/>
     </row>
@@ -5475,10 +5483,10 @@
         <v>36892</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D327" s="3"/>
     </row>
@@ -5487,10 +5495,10 @@
         <v>36892</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D328" s="3"/>
     </row>
@@ -5499,10 +5507,10 @@
         <v>36892</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D329" s="3"/>
     </row>
@@ -5511,10 +5519,10 @@
         <v>36892</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D330" s="3"/>
     </row>
@@ -5523,10 +5531,10 @@
         <v>36892</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D331" s="3"/>
     </row>
@@ -5535,10 +5543,10 @@
         <v>36892</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D332" s="3"/>
     </row>
@@ -5547,10 +5555,10 @@
         <v>36892</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D333" s="3"/>
     </row>
@@ -5559,10 +5567,10 @@
         <v>36892</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D334" s="3"/>
     </row>
@@ -5571,10 +5579,10 @@
         <v>36892</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D335" s="3"/>
     </row>
@@ -5583,10 +5591,10 @@
         <v>36892</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D336" s="3"/>
     </row>
@@ -5595,10 +5603,10 @@
         <v>36892</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D337" s="3"/>
     </row>
@@ -5607,10 +5615,10 @@
         <v>36892</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D338" s="3"/>
     </row>
@@ -5619,10 +5627,10 @@
         <v>36892</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D339" s="3"/>
     </row>
@@ -5631,22 +5639,22 @@
         <v>36892</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D340" s="3"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
-        <v>36526</v>
+        <v>36892</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D341" s="3"/>
     </row>
@@ -5655,10 +5663,10 @@
         <v>36526</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D342" s="3"/>
     </row>
@@ -5667,10 +5675,10 @@
         <v>36526</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D343" s="3"/>
     </row>
@@ -5679,10 +5687,10 @@
         <v>36526</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>137</v>
+        <v>309</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D344" s="3"/>
     </row>
@@ -5691,10 +5699,10 @@
         <v>36526</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>360</v>
+        <v>137</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D345" s="3"/>
     </row>
@@ -5703,10 +5711,10 @@
         <v>36526</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D346" s="3"/>
     </row>
@@ -5715,10 +5723,10 @@
         <v>36526</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D347" s="3"/>
     </row>
@@ -5727,10 +5735,10 @@
         <v>36526</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D348" s="3"/>
     </row>
@@ -5739,10 +5747,10 @@
         <v>36526</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>331</v>
+        <v>141</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D349" s="3"/>
     </row>
@@ -5751,10 +5759,10 @@
         <v>36526</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>159</v>
+        <v>331</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D350" s="3"/>
     </row>
@@ -5763,10 +5771,10 @@
         <v>36526</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>316</v>
+        <v>159</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D351" s="3"/>
     </row>
@@ -5775,10 +5783,10 @@
         <v>36526</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D352" s="3"/>
     </row>
@@ -5787,10 +5795,10 @@
         <v>36526</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D353" s="3"/>
     </row>
@@ -5799,10 +5807,10 @@
         <v>36526</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D354" s="3"/>
     </row>
@@ -5811,10 +5819,10 @@
         <v>36526</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D355" s="3"/>
     </row>
@@ -5823,10 +5831,10 @@
         <v>36526</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D356" s="3"/>
     </row>
@@ -5835,10 +5843,10 @@
         <v>36526</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D357" s="3"/>
     </row>
@@ -5847,10 +5855,10 @@
         <v>36526</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D358" s="3"/>
     </row>
@@ -5859,10 +5867,10 @@
         <v>36526</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D359" s="3"/>
     </row>
@@ -5871,12 +5879,24 @@
         <v>36526</v>
       </c>
       <c r="B360" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D360" s="3"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A361" s="1">
+        <v>36526</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C361" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D360" s="3"/>
+      <c r="D361" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
